--- a/extra/excel_templates/fredbet_em_2024.xlsx
+++ b/extra/excel_templates/fredbet_em_2024.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="268">
   <si>
     <t xml:space="preserve">Country 1</t>
   </si>
@@ -114,7 +114,7 @@
     <t xml:space="preserve">ENGLAND</t>
   </si>
   <si>
-    <t xml:space="preserve">Playoff 1A</t>
+    <t xml:space="preserve">POLAND</t>
   </si>
   <si>
     <t xml:space="preserve">NETHERLANDS</t>
@@ -141,13 +141,13 @@
     <t xml:space="preserve">ROMANIA</t>
   </si>
   <si>
-    <t xml:space="preserve">Playoff 2B</t>
+    <t xml:space="preserve">UKRAINE</t>
   </si>
   <si>
     <t xml:space="preserve">TURKEY</t>
   </si>
   <si>
-    <t xml:space="preserve">Playoff 3C</t>
+    <t xml:space="preserve">GEORGIA</t>
   </si>
   <si>
     <t xml:space="preserve">GROUP_F</t>
@@ -453,9 +453,6 @@
     <t xml:space="preserve">GAMBIA</t>
   </si>
   <si>
-    <t xml:space="preserve">GEORGIA</t>
-  </si>
-  <si>
     <t xml:space="preserve">GHANA</t>
   </si>
   <si>
@@ -678,9 +675,6 @@
     <t xml:space="preserve">PHILIPPINES</t>
   </si>
   <si>
-    <t xml:space="preserve">POLAND</t>
-  </si>
-  <si>
     <t xml:space="preserve">PUERTO_RICO</t>
   </si>
   <si>
@@ -790,9 +784,6 @@
   </si>
   <si>
     <t xml:space="preserve">UGANDA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UKRAINE</t>
   </si>
   <si>
     <t xml:space="preserve">UNITED_ARAB_EMIRATES</t>
@@ -845,7 +836,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy\ hh:mm"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -875,6 +866,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -925,7 +922,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -939,6 +936,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1021,8 +1022,8 @@
   </sheetPr>
   <dimension ref="A1:E440"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A32" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C64" activeCellId="0" sqref="C64"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1613,7 +1614,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -1647,7 +1648,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4645,7 +4646,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4655,67 +4656,67 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,32 +4726,32 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,202 +4761,202 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,82 +4966,82 @@
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>218</v>
+        <v>30</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5050,12 +5051,12 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5065,32 +5066,32 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5100,7 +5101,7 @@
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5110,17 +5111,17 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5135,22 +5136,22 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,42 +5161,42 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5205,52 +5206,52 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5260,77 +5261,77 @@
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -5392,12 +5393,12 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5422,7 +5423,7 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
